--- a/biology/Zoologie/Engoulevent_des_bois/Engoulevent_des_bois.xlsx
+++ b/biology/Zoologie/Engoulevent_des_bois/Engoulevent_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Setopagis parvula
 L'Engoulevent des bois (Setopagis parvula ou Setopagis parvulus, syn. Hydropsalis parvula, anciennement Caprimulgus parvulus) est une espèce d'oiseaux de la famille des Caprimulgidae. Setopagis heterura est parfois considérée comme sous-espèce de l'Engoulevent des bois.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Amérique du Sud.
 </t>
